--- a/xlsx/StudyResults_AG.xlsx
+++ b/xlsx/StudyResults_AG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univerzamb-my.sharepoint.com/personal/tomaz_kosar_um_si/Documents/Dokumenti/LISA.SI_eksperiment2022/7. Rezultati/1. Originali/3.Lab package/Study results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univerzamb-my.sharepoint.com/personal/tomaz_kosar_um_si/Documents/Dokumenti/LISA.SI_eksperiment2022/7. Rezultati/1. Originali/3.Lab package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="11_9DA3961010AE3C2655F969288D5BD1E6E9AB2A9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC5963EA-A9E0-4622-9F90-08703EBA0EFD}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="11_9DA3961010AE3C2655F969288D5BD1E6E9AB2A9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BF87F3B-871B-47F6-A45D-7DCE29FE53E3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group1(FERI)_test1" sheetId="1" r:id="rId1"/>
@@ -801,7 +801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2522,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C3027A-2913-4E86-A632-59EEC10E5EA6}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3399,34 +3399,13 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D28" s="6">
-        <f>SUM(D2:D27)/(26*1.43)</f>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="E28" s="6">
-        <f t="shared" ref="E28:J28" si="0">SUM(E2:E27)/(26*1.43)</f>
-        <v>0.65384615384615385</v>
-      </c>
-      <c r="F28" s="6">
-        <f t="shared" si="0"/>
-        <v>0.76923076923076916</v>
-      </c>
-      <c r="G28" s="6">
-        <f t="shared" si="0"/>
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="H28" s="6">
-        <f t="shared" si="0"/>
-        <v>0.84615384615384603</v>
-      </c>
-      <c r="I28" s="6">
-        <f t="shared" si="0"/>
-        <v>0.73076923076923073</v>
-      </c>
-      <c r="J28" s="6">
-        <f t="shared" si="0"/>
-        <v>0.8076923076923076</v>
-      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3437,7 +3416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2453B70-AD1C-487E-A72C-65D3EEE64932}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
